--- a/Definition/Req/SIQ.xlsx
+++ b/Definition/Req/SIQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
   <si>
     <t>who</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>add - edit - delete client account</t>
-  </si>
-  <si>
-    <t>pay bills + regular transactions</t>
   </si>
   <si>
     <t>http ,  only credentials</t>
@@ -130,9 +127,6 @@
     <t>Client has a different gui from admin due to the difference in features between each of them</t>
   </si>
   <si>
-    <t>Same client can create a maximum of 5 accounts</t>
-  </si>
-  <si>
     <t>All versions of Google Chrome</t>
   </si>
   <si>
@@ -182,12 +176,6 @@
     <t>Closed</t>
   </si>
   <si>
-    <t xml:space="preserve">Bank account numbers, amount , date , currency </t>
-  </si>
-  <si>
-    <t>Esraa</t>
-  </si>
-  <si>
     <t>Session time is 15 minutes ( Future work )</t>
   </si>
   <si>
@@ -300,6 +288,33 @@
   </si>
   <si>
     <t>When user makes a transfer, they should be asked if they want to transfer to the same bank or other banks. ( Future work )</t>
+  </si>
+  <si>
+    <t>Mostafa</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Aya</t>
+  </si>
+  <si>
+    <t>Osama</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eng/ Esraa </t>
+  </si>
+  <si>
+    <t>Bank account numbers, amount , currency ,date</t>
+  </si>
+  <si>
+    <t>regular transactions only - no need to add paying bills feature</t>
+  </si>
+  <si>
+    <t>Same client can create a maximum of 2 accounts</t>
   </si>
 </sst>
 </file>
@@ -377,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -392,6 +407,15 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,7 +723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -709,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,29 +742,30 @@
     <col min="1" max="1" width="11.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="65" style="5" customWidth="1"/>
+    <col min="4" max="4" width="65" style="13" customWidth="1"/>
     <col min="5" max="5" width="73" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
+      <c r="D1" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
@@ -751,41 +776,41 @@
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7">
         <v>44660</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F2" s="7">
         <v>44660</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="9">
         <v>44660</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -795,232 +820,232 @@
         <v>44660</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B4" s="9">
         <v>44660</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F4" s="9">
         <v>44660</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="9">
         <v>44660</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F5" s="9">
         <v>44660</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B6" s="9">
         <v>44660</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F6" s="9">
         <v>44660</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B7" s="9">
         <v>44660</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="9">
         <v>44660</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7">
         <v>44660</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>87</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F8" s="7">
         <v>44660</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" s="9">
         <v>44660</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="9">
         <v>44660</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" s="9">
         <v>44660</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F10" s="9">
         <v>44660</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B11" s="9">
         <v>44660</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="F11" s="9">
         <v>44660</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B12" s="9">
         <v>44660</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -1030,352 +1055,353 @@
         <v>44660</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B13" s="9">
         <v>44660</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="9">
         <v>44660</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B14" s="9">
         <v>44660</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="F14" s="9">
         <v>44660</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B15" s="9">
         <v>44660</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F15" s="9">
         <v>44660</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B16" s="7">
         <v>44660</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F16" s="7">
         <v>44660</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B17" s="7">
         <v>44660</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F17" s="7">
         <v>44660</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B18" s="9">
         <v>44660</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" s="9">
         <v>44660</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="7">
         <v>44660</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7">
         <v>44660</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B20" s="9">
         <v>44660</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" s="9">
         <v>44660</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B21" s="9">
         <v>44660</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9">
         <v>44660</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B22" s="9">
         <v>44660</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" s="9">
         <v>44660</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B23" s="9">
         <v>44660</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>38</v>
+        <v>87</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F23" s="9">
         <v>44660</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B24" s="9">
         <v>44660</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>40</v>
+        <v>86</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" s="9">
         <v>44660</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B25" s="9">
         <v>44660</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F25" s="9">
         <v>44660</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
+      <c r="D26" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1386,7 +1412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1395,32 +1423,32 @@
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
